--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:57:29+00:00</t>
+    <t>2024-07-01T13:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:34:09+00:00</t>
+    <t>2024-07-01T14:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T14:15:30+00:00</t>
+    <t>2024-07-01T15:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:10:45+00:00</t>
+    <t>2024-07-01T15:21:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:21:32+00:00</t>
+    <t>2024-07-01T15:22:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
+++ b/cpts-patch/ig/StructureDefinition-sas-sos-slot-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:22:21+00:00</t>
+    <t>2024-07-01T15:30:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
